--- a/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EB198-7FD9-4C91-837F-C77D235724E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E04CEFA-9017-4039-8E6A-F169DC289BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit|id(100,999)" sheetId="5" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="14340" tabRatio="805"/>
   </bookViews>
   <sheets>
     <sheet name="Unit|id(100,999)" sheetId="5" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7150" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7150" uniqueCount="661">
   <si>
     <t>id(100-&gt;999)</t>
   </si>
@@ -2374,12 +2374,16 @@
   <si>
     <t>cost_skill04</t>
   </si>
+  <si>
+    <t>10301|10302|10303|10305</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2455,6 +2459,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2477,7 +2489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39811395611438338"/>
+        <fgColor theme="3" tint="0.39808343760490739"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,19 +2525,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39866328928495132"/>
+        <fgColor theme="6" tint="0.39863277077547532"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79973754081850645"/>
+        <fgColor theme="6" tint="0.79970702230903046"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39973143711661124"/>
+        <fgColor theme="6" tint="0.39970091860713525"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,7 +2549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79979857783745845"/>
+        <fgColor theme="8" tint="0.79976805932798245"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2582,14 +2594,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2692,9 +2704,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2735,9 +2744,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2835,6 +2841,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3697,9 +3706,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3795,13 +3804,13 @@
       <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="59" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="11" t="s">
@@ -3810,16 +3819,16 @@
       <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="76" t="s">
+      <c r="AA1" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="76" t="s">
+      <c r="AB1" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="76" t="s">
+      <c r="AC1" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="76" t="s">
+      <c r="AD1" s="74" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3866,13 +3875,13 @@
       <c r="N2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="39" t="s">
         <v>44</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="39" t="s">
         <v>46</v>
       </c>
       <c r="R2" s="12" t="s">
@@ -3887,13 +3896,13 @@
       <c r="U2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="60" t="s">
         <v>53</v>
       </c>
       <c r="Y2" s="12" t="s">
@@ -3902,20 +3911,20 @@
       <c r="Z2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AA2" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="77" t="s">
+      <c r="AB2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AC2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="77" t="s">
+      <c r="AD2" s="75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" s="24" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>60</v>
       </c>
@@ -3964,34 +3973,34 @@
       <c r="P3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="63" t="s">
+      <c r="Q3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="R3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="63" t="s">
+      <c r="S3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="63" t="s">
+      <c r="T3" s="61" t="s">
         <v>60</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="64" t="s">
+      <c r="V3" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="W3" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="X3" s="64" t="s">
+      <c r="X3" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="63" t="s">
+      <c r="Y3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="63" t="s">
+      <c r="Z3" s="61" t="s">
         <v>60</v>
       </c>
       <c r="AA3" s="3" t="s">
@@ -4033,15 +4042,15 @@
         <v>71</v>
       </c>
       <c r="K4" s="14"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42" t="s">
+      <c r="L4" s="40"/>
+      <c r="M4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42" t="s">
+      <c r="O4" s="41"/>
+      <c r="P4" s="41" t="s">
         <v>72</v>
       </c>
       <c r="Q4" s="14"/>
@@ -4103,17 +4112,17 @@
       <c r="K5" s="25">
         <v>1</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="42">
         <v>100</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="45">
+      <c r="N5" s="44">
         <v>10002</v>
       </c>
-      <c r="O5" s="45"/>
-      <c r="P5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="43"/>
       <c r="R5" s="25" t="s">
         <v>80</v>
       </c>
@@ -4126,10 +4135,10 @@
       <c r="V5" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="65" t="s">
+      <c r="W5" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="65" t="s">
+      <c r="X5" s="63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4167,20 +4176,20 @@
       <c r="K6" s="26">
         <v>1</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="45">
         <v>101</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="47">
         <v>90102</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="47">
         <v>0</v>
       </c>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="66" t="s">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="64" t="s">
         <v>87</v>
       </c>
       <c r="R6" s="33" t="s">
@@ -4198,10 +4207,10 @@
       <c r="V6" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="67" t="s">
+      <c r="W6" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X6" s="67" t="s">
+      <c r="X6" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4239,20 +4248,20 @@
       <c r="K7" s="26">
         <v>1</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="45">
         <v>103</v>
       </c>
-      <c r="M7" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="48">
+      <c r="M7" s="82" t="s">
+        <v>660</v>
+      </c>
+      <c r="N7" s="47">
         <v>10302</v>
       </c>
-      <c r="O7" s="48">
+      <c r="O7" s="47">
         <v>0</v>
       </c>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="66" t="s">
+      <c r="P7" s="46"/>
+      <c r="Q7" s="64" t="s">
         <v>96</v>
       </c>
       <c r="R7" s="33" t="s">
@@ -4270,10 +4279,10 @@
       <c r="V7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W7" s="67" t="s">
+      <c r="W7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X7" s="67" t="s">
+      <c r="X7" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4311,19 +4320,19 @@
       <c r="K8" s="26">
         <v>1</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="45">
         <v>105</v>
       </c>
-      <c r="M8" s="49" t="s">
+      <c r="M8" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="47">
         <v>10502</v>
       </c>
-      <c r="O8" s="48">
+      <c r="O8" s="47">
         <v>0</v>
       </c>
-      <c r="P8" s="47"/>
+      <c r="P8" s="46"/>
       <c r="Q8" s="33" t="s">
         <v>101</v>
       </c>
@@ -4342,10 +4351,10 @@
       <c r="V8" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="W8" s="67" t="s">
+      <c r="W8" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X8" s="67" t="s">
+      <c r="X8" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4368,7 +4377,7 @@
       <c r="F9" s="26">
         <v>1</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="33" t="s">
         <v>104</v>
       </c>
       <c r="H9" s="26">
@@ -4383,20 +4392,20 @@
       <c r="K9" s="26">
         <v>1</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="45">
         <v>101</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="48">
+      <c r="N9" s="47">
         <v>90102</v>
       </c>
-      <c r="O9" s="48">
+      <c r="O9" s="47">
         <v>0</v>
       </c>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="66" t="s">
+      <c r="P9" s="46"/>
+      <c r="Q9" s="64" t="s">
         <v>87</v>
       </c>
       <c r="R9" s="33" t="s">
@@ -4414,10 +4423,10 @@
       <c r="V9" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W9" s="67" t="s">
+      <c r="W9" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="67" t="s">
+      <c r="X9" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4440,7 +4449,7 @@
       <c r="F10" s="26">
         <v>1</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="33" t="s">
         <v>104</v>
       </c>
       <c r="H10" s="26">
@@ -4455,20 +4464,20 @@
       <c r="K10" s="26">
         <v>1</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="45">
         <v>103</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="47">
         <v>10302</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="47">
         <v>0</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="66" t="s">
+      <c r="P10" s="46"/>
+      <c r="Q10" s="64" t="s">
         <v>96</v>
       </c>
       <c r="R10" s="33" t="s">
@@ -4486,10 +4495,10 @@
       <c r="V10" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W10" s="67" t="s">
+      <c r="W10" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X10" s="67" t="s">
+      <c r="X10" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4512,7 +4521,7 @@
       <c r="F11" s="26">
         <v>2</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="33" t="s">
         <v>104</v>
       </c>
       <c r="H11" s="26">
@@ -4527,19 +4536,19 @@
       <c r="K11" s="26">
         <v>1</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="45">
         <v>105</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="M11" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="48">
+      <c r="N11" s="47">
         <v>10502</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="47">
         <v>0</v>
       </c>
-      <c r="P11" s="47"/>
+      <c r="P11" s="46"/>
       <c r="Q11" s="33" t="s">
         <v>101</v>
       </c>
@@ -4558,10 +4567,10 @@
       <c r="V11" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="W11" s="67" t="s">
+      <c r="W11" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="X11" s="67" t="s">
+      <c r="X11" s="65" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4599,15 +4608,15 @@
       <c r="K12" s="25">
         <v>1</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>912</v>
       </c>
-      <c r="M12" s="44" t="s">
+      <c r="M12" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="43"/>
       <c r="R12" s="32" t="s">
         <v>108</v>
       </c>
@@ -4621,10 +4630,10 @@
       <c r="V12" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="W12" s="65" t="s">
+      <c r="W12" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="65" t="s">
+      <c r="X12" s="63" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4662,17 +4671,17 @@
       <c r="K13" s="25">
         <v>1</v>
       </c>
-      <c r="L13" s="43">
+      <c r="L13" s="42">
         <v>908</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="44">
         <v>90802</v>
       </c>
-      <c r="O13" s="45"/>
-      <c r="P13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="43"/>
       <c r="R13" s="32" t="s">
         <v>114</v>
       </c>
@@ -4686,10 +4695,10 @@
       <c r="V13" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="W13" s="65" t="s">
+      <c r="W13" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="X13" s="65" t="s">
+      <c r="X13" s="63" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4727,17 +4736,17 @@
       <c r="K14" s="25">
         <v>1</v>
       </c>
-      <c r="L14" s="43">
+      <c r="L14" s="42">
         <v>909</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <v>90902</v>
       </c>
-      <c r="O14" s="45"/>
-      <c r="P14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="43"/>
       <c r="R14" s="32" t="s">
         <v>117</v>
       </c>
@@ -4751,10 +4760,10 @@
       <c r="V14" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="W14" s="65" t="s">
+      <c r="W14" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="X14" s="65" t="s">
+      <c r="X14" s="63" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4762,7 +4771,7 @@
       <c r="A15" s="25">
         <v>910</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="32">
@@ -4777,7 +4786,7 @@
       <c r="F15" s="25">
         <v>3</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="34" t="s">
         <v>121</v>
       </c>
       <c r="H15" s="25">
@@ -4792,17 +4801,17 @@
       <c r="K15" s="25">
         <v>1</v>
       </c>
-      <c r="L15" s="43">
+      <c r="L15" s="42">
         <v>910</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="O15" s="45"/>
-      <c r="P15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="43"/>
       <c r="R15" s="32" t="s">
         <v>124</v>
       </c>
@@ -4816,10 +4825,10 @@
       <c r="V15" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="W15" s="65" t="s">
+      <c r="W15" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="X15" s="65" t="s">
+      <c r="X15" s="63" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4857,17 +4866,17 @@
       <c r="K16" s="25">
         <v>1</v>
       </c>
-      <c r="L16" s="43">
+      <c r="L16" s="42">
         <v>911</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="44">
         <v>91102</v>
       </c>
-      <c r="O16" s="45"/>
-      <c r="P16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="43"/>
       <c r="R16" s="32" t="s">
         <v>131</v>
       </c>
@@ -4881,10 +4890,10 @@
       <c r="V16" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="W16" s="65" t="s">
+      <c r="W16" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="X16" s="65" t="s">
+      <c r="X16" s="63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4922,17 +4931,17 @@
       <c r="K17" s="25">
         <v>1</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="42">
         <v>912</v>
       </c>
-      <c r="M17" s="44" t="s">
+      <c r="M17" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="44">
         <v>91202</v>
       </c>
-      <c r="O17" s="45"/>
-      <c r="P17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="43"/>
       <c r="R17" s="32" t="s">
         <v>108</v>
       </c>
@@ -4946,10 +4955,10 @@
       <c r="V17" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="W17" s="65" t="s">
+      <c r="W17" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="X17" s="65" t="s">
+      <c r="X17" s="63" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4987,15 +4996,15 @@
       <c r="K18" s="25">
         <v>1</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="42">
         <v>913</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="43"/>
       <c r="R18" s="32" t="s">
         <v>108</v>
       </c>
@@ -5009,10 +5018,10 @@
       <c r="V18" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="W18" s="65" t="s">
+      <c r="W18" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="X18" s="65" t="s">
+      <c r="X18" s="63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5050,20 +5059,20 @@
       <c r="K19" s="26">
         <v>1</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="45">
         <v>101</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="47" t="s">
+      <c r="N19" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="47">
         <v>0</v>
       </c>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="66" t="s">
+      <c r="P19" s="46"/>
+      <c r="Q19" s="64" t="s">
         <v>87</v>
       </c>
       <c r="R19" s="33" t="s">
@@ -5081,10 +5090,10 @@
       <c r="V19" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W19" s="67" t="s">
+      <c r="W19" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="X19" s="67" t="s">
+      <c r="X19" s="65" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5122,19 +5131,19 @@
       <c r="K20" s="25">
         <v>1</v>
       </c>
-      <c r="L20" s="43">
+      <c r="L20" s="42">
         <v>103</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="44">
         <v>10302</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="44">
         <v>0</v>
       </c>
-      <c r="P20" s="44"/>
+      <c r="P20" s="43"/>
       <c r="Q20" s="27" t="s">
         <v>96</v>
       </c>
@@ -5153,10 +5162,10 @@
       <c r="V20" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="W20" s="65" t="s">
+      <c r="W20" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="X20" s="65" t="s">
+      <c r="X20" s="63" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5170,13 +5179,13 @@
       <c r="C21" s="27">
         <v>0</v>
       </c>
-      <c r="D21" s="36">
-        <v>2</v>
-      </c>
-      <c r="E21" s="36">
-        <v>1</v>
-      </c>
-      <c r="F21" s="36">
+      <c r="D21" s="35">
+        <v>2</v>
+      </c>
+      <c r="E21" s="35">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35">
         <v>1</v>
       </c>
       <c r="G21" s="27" t="s">
@@ -5195,19 +5204,19 @@
       <c r="K21" s="27">
         <v>1</v>
       </c>
-      <c r="L21" s="50">
+      <c r="L21" s="48">
         <v>101</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="49">
         <v>0</v>
       </c>
-      <c r="P21" s="51" t="str">
+      <c r="P21" s="49" t="str">
         <f>IF(A21&lt;900,IF(H21=1,A21*100+4,""),"")</f>
         <v/>
       </c>
@@ -5229,13 +5238,13 @@
       <c r="V21" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="W21" s="68" t="s">
+      <c r="W21" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="X21" s="68" t="s">
+      <c r="X21" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="Z21" s="50">
+      <c r="Z21" s="48">
         <v>1015</v>
       </c>
     </row>
@@ -5274,19 +5283,19 @@
       <c r="K22" s="27">
         <v>1</v>
       </c>
-      <c r="L22" s="50">
+      <c r="L22" s="48">
         <v>103</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="49">
         <v>0</v>
       </c>
-      <c r="P22" s="51" t="str">
+      <c r="P22" s="49" t="str">
         <f t="shared" ref="P22:P25" si="1">IF(A22&lt;900,IF(H22=1,A22*100+4,""),"")</f>
         <v/>
       </c>
@@ -5308,13 +5317,13 @@
       <c r="V22" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="W22" s="68" t="s">
+      <c r="W22" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="X22" s="68" t="s">
+      <c r="X22" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="Z22" s="50">
+      <c r="Z22" s="48">
         <v>1016</v>
       </c>
     </row>
@@ -5353,19 +5362,19 @@
       <c r="K23" s="27">
         <v>1</v>
       </c>
-      <c r="L23" s="50">
+      <c r="L23" s="48">
         <v>105</v>
       </c>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="49">
         <v>0</v>
       </c>
-      <c r="P23" s="51" t="str">
+      <c r="P23" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5381,19 +5390,19 @@
       <c r="T23" s="27">
         <v>10</v>
       </c>
-      <c r="U23" s="69" t="s">
+      <c r="U23" s="67" t="s">
         <v>160</v>
       </c>
       <c r="V23" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="W23" s="68" t="s">
+      <c r="W23" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="X23" s="68" t="s">
+      <c r="X23" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="Z23" s="50">
+      <c r="Z23" s="48">
         <v>1024</v>
       </c>
     </row>
@@ -5432,19 +5441,19 @@
       <c r="K24" s="27">
         <v>1</v>
       </c>
-      <c r="L24" s="50">
+      <c r="L24" s="48">
         <v>119</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="49">
         <v>0</v>
       </c>
-      <c r="P24" s="51" t="str">
+      <c r="P24" s="49" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5466,13 +5475,13 @@
       <c r="V24" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="W24" s="68" t="s">
+      <c r="W24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="X24" s="68" t="s">
+      <c r="X24" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="48">
         <v>1023</v>
       </c>
     </row>
@@ -5486,13 +5495,13 @@
       <c r="C25" s="28">
         <v>1</v>
       </c>
-      <c r="D25" s="37">
-        <v>2</v>
-      </c>
-      <c r="E25" s="37">
-        <v>1</v>
-      </c>
-      <c r="F25" s="37">
+      <c r="D25" s="36">
+        <v>2</v>
+      </c>
+      <c r="E25" s="36">
+        <v>1</v>
+      </c>
+      <c r="F25" s="36">
         <v>1</v>
       </c>
       <c r="G25" s="28" t="s">
@@ -5502,7 +5511,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="28" t="str">
-        <f>500000+A25&amp;";"&amp;IF(H25=1,5,IF(H25=2,20,50))&amp;"|500000;"&amp;IF(H25=1,1,IF(H25=2,5,20))</f>
+        <f>500000+A25&amp;";"&amp;IF(H25=1,5,IF(H25=2,25,50))&amp;"|500000;"&amp;IF(H25=1,1,IF(H25=2,8,40))</f>
         <v>500101;5|500000;1</v>
       </c>
       <c r="J25" s="28" t="str">
@@ -5513,20 +5522,20 @@
         <f>POWER(2,H25-1)</f>
         <v>1</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="50">
         <v>101</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="N25" s="53" t="str">
+      <c r="N25" s="51" t="str">
         <f>IF(H25=1,A25*100+1&amp;"|"&amp;A25*100+3,A25*100+1&amp;"|"&amp;A25*100+3&amp;"|"&amp;A25*100+4)</f>
         <v>10101|10103</v>
       </c>
-      <c r="O25" s="53" t="s">
+      <c r="O25" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="53">
+      <c r="P25" s="51">
         <f t="shared" si="1"/>
         <v>10104</v>
       </c>
@@ -5548,26 +5557,26 @@
       <c r="V25" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W25" s="70" t="s">
+      <c r="W25" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="X25" s="70" t="s">
+      <c r="X25" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="Z25" s="52">
+      <c r="Z25" s="50">
         <v>1015</v>
       </c>
-      <c r="AA25" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC25" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="78">
-        <v>2</v>
+      <c r="AA25" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="76">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -5580,13 +5589,13 @@
       <c r="C26" s="29">
         <v>0</v>
       </c>
-      <c r="D26" s="38">
-        <v>2</v>
-      </c>
-      <c r="E26" s="38">
-        <v>1</v>
-      </c>
-      <c r="F26" s="38">
+      <c r="D26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37">
         <v>1</v>
       </c>
       <c r="G26" s="29" t="s">
@@ -5602,15 +5611,15 @@
         <f t="shared" ref="K26:K55" si="2">POWER(2,H26-1)</f>
         <v>1</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="52">
         <v>991</v>
       </c>
-      <c r="M26" s="55" t="s">
+      <c r="M26" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55" t="str">
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53" t="str">
         <f t="shared" ref="P26:P53" si="3">IF(A26&lt;900,IF(H26=1,A26*100+4,""),"")</f>
         <v/>
       </c>
@@ -5638,15 +5647,19 @@
       <c r="X26" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="Z26" s="54"/>
-      <c r="AA26" s="79">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="79">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="77">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="77">
+        <v>3</v>
+      </c>
+      <c r="AC26" s="76">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="76">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28">
@@ -5670,12 +5683,12 @@
       <c r="G27" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>2</v>
       </c>
       <c r="I27" s="28" t="str">
-        <f t="shared" ref="I27:I55" si="4">500000+A27&amp;";"&amp;IF(H27=1,5,IF(H27=2,20,50))&amp;"|500000;"&amp;IF(H27=1,1,IF(H27=2,5,20))</f>
-        <v>500102;20|500000;5</v>
+        <f t="shared" ref="I27:I55" si="4">500000+A27&amp;";"&amp;IF(H27=1,5,IF(H27=2,25,50))&amp;"|500000;"&amp;IF(H27=1,1,IF(H27=2,8,40))</f>
+        <v>500102;25|500000;8</v>
       </c>
       <c r="J27" s="28" t="str">
         <f t="shared" ref="J27:J53" si="5">500000+A27&amp;"|"&amp;POWER(H27,2)*10+10</f>
@@ -5685,20 +5698,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L27" s="52">
+      <c r="L27" s="50">
         <v>102</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="N27" s="53" t="str">
+      <c r="N27" s="51" t="str">
         <f t="shared" ref="N27:N53" si="6">IF(H27=1,A27*100+1&amp;"|"&amp;A27*100+3,A27*100+1&amp;"|"&amp;A27*100+3&amp;"|"&amp;A27*100+4)</f>
         <v>10201|10203|10204</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="O27" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="P27" s="53" t="str">
+      <c r="P27" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5720,26 +5733,26 @@
       <c r="V27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W27" s="70" t="s">
+      <c r="W27" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="X27" s="70" t="s">
+      <c r="X27" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="Z27" s="52">
+      <c r="Z27" s="50">
         <v>1017</v>
       </c>
-      <c r="AA27" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="78">
-        <v>2</v>
+      <c r="AA27" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="76">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="76">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5779,20 +5792,20 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="50">
         <v>103</v>
       </c>
-      <c r="M28" s="53" t="s">
+      <c r="M28" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="N28" s="53" t="str">
+      <c r="N28" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10301|10303</v>
       </c>
-      <c r="O28" s="53" t="s">
+      <c r="O28" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P28" s="53">
+      <c r="P28" s="51">
         <f t="shared" si="3"/>
         <v>10304</v>
       </c>
@@ -5814,26 +5827,26 @@
       <c r="V28" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W28" s="70" t="s">
+      <c r="W28" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="X28" s="70" t="s">
+      <c r="X28" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="Z28" s="52">
+      <c r="Z28" s="50">
         <v>1016</v>
       </c>
-      <c r="AA28" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC28" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="78">
-        <v>2</v>
+      <c r="AA28" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="76">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -5863,7 +5876,7 @@
       </c>
       <c r="I29" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500104;50|500000;20</v>
+        <v>500104;50|500000;40</v>
       </c>
       <c r="J29" s="28" t="str">
         <f t="shared" si="5"/>
@@ -5873,20 +5886,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L29" s="52">
+      <c r="L29" s="50">
         <v>104</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="M29" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="N29" s="53" t="str">
+      <c r="N29" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10401|10403|10404</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O29" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="P29" s="53" t="str">
+      <c r="P29" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5908,26 +5921,26 @@
       <c r="V29" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W29" s="70" t="s">
+      <c r="W29" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="X29" s="70" t="s">
+      <c r="X29" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="Z29" s="52">
+      <c r="Z29" s="50">
         <v>1022</v>
       </c>
-      <c r="AA29" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC29" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="78">
-        <v>2</v>
+      <c r="AA29" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="76">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="76">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -5962,19 +5975,19 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="52">
         <v>994</v>
       </c>
-      <c r="M30" s="55">
+      <c r="M30" s="53">
         <v>99401</v>
       </c>
-      <c r="N30" s="55">
+      <c r="N30" s="53">
         <v>99401</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="53">
         <v>0</v>
       </c>
-      <c r="P30" s="55" t="str">
+      <c r="P30" s="53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -5996,23 +6009,23 @@
       <c r="V30" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="W30" s="71" t="s">
+      <c r="W30" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="X30" s="71" t="s">
+      <c r="X30" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="80">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="80">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="80">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="80">
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="78">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="78">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="78">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="78">
         <v>2</v>
       </c>
     </row>
@@ -6043,7 +6056,7 @@
       </c>
       <c r="I31" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500105;20|500000;5</v>
+        <v>500105;25|500000;8</v>
       </c>
       <c r="J31" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6053,18 +6066,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="50">
         <v>105</v>
       </c>
-      <c r="M31" s="53" t="s">
+      <c r="M31" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="N31" s="53" t="str">
+      <c r="N31" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10501|10503|10504</v>
       </c>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53" t="str">
+      <c r="O31" s="51"/>
+      <c r="P31" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6080,32 +6093,32 @@
       <c r="T31" s="28">
         <v>10</v>
       </c>
-      <c r="U31" s="72" t="s">
+      <c r="U31" s="70" t="s">
         <v>160</v>
       </c>
       <c r="V31" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W31" s="70" t="s">
+      <c r="W31" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="X31" s="70" t="s">
+      <c r="X31" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="Z31" s="52">
+      <c r="Z31" s="50">
         <v>1024</v>
       </c>
-      <c r="AA31" s="78">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC31" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="78">
-        <v>2</v>
+      <c r="AA31" s="76">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="76">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="76">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6135,7 +6148,7 @@
       </c>
       <c r="I32" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500106;50|500000;20</v>
+        <v>500106;50|500000;40</v>
       </c>
       <c r="J32" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6145,18 +6158,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="50">
         <v>106</v>
       </c>
-      <c r="M32" s="53" t="s">
+      <c r="M32" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="N32" s="53" t="str">
+      <c r="N32" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10601|10603|10604</v>
       </c>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53" t="str">
+      <c r="O32" s="51"/>
+      <c r="P32" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6178,26 +6191,26 @@
       <c r="V32" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="W32" s="70" t="s">
+      <c r="W32" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="X32" s="70" t="s">
+      <c r="X32" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="Z32" s="52">
+      <c r="Z32" s="50">
         <v>1025</v>
       </c>
-      <c r="AA32" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC32" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="78">
-        <v>2</v>
+      <c r="AA32" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC32" s="76">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="76">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.15">
@@ -6232,15 +6245,15 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="52">
         <v>996</v>
       </c>
-      <c r="M33" s="55" t="s">
+      <c r="M33" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55" t="str">
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6262,24 +6275,24 @@
       <c r="V33" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="W33" s="71" t="s">
+      <c r="W33" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="X33" s="71" t="s">
+      <c r="X33" s="69" t="s">
         <v>194</v>
       </c>
-      <c r="Z33" s="54"/>
-      <c r="AA33" s="80">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="80">
-        <v>3</v>
-      </c>
-      <c r="AC33" s="80">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="80">
-        <v>2</v>
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="78">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="78">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="76">
+        <v>3</v>
+      </c>
+      <c r="AD33" s="76">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -6309,7 +6322,7 @@
       </c>
       <c r="I34" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500107;20|500000;5</v>
+        <v>500107;25|500000;8</v>
       </c>
       <c r="J34" s="30" t="str">
         <f t="shared" si="5"/>
@@ -6319,20 +6332,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L34" s="56">
+      <c r="L34" s="54">
         <v>107</v>
       </c>
-      <c r="M34" s="57" t="s">
+      <c r="M34" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="N34" s="57" t="str">
+      <c r="N34" s="55" t="str">
         <f t="shared" si="6"/>
         <v>10701|10703|10704</v>
       </c>
-      <c r="O34" s="57" t="s">
+      <c r="O34" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="P34" s="57" t="str">
+      <c r="P34" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6348,32 +6361,32 @@
       <c r="T34" s="30">
         <v>10</v>
       </c>
-      <c r="U34" s="73" t="s">
+      <c r="U34" s="71" t="s">
         <v>200</v>
       </c>
       <c r="V34" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="W34" s="74" t="s">
+      <c r="W34" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="X34" s="74" t="s">
+      <c r="X34" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="Z34" s="56">
+      <c r="Z34" s="54">
         <v>1036</v>
       </c>
-      <c r="AA34" s="81">
-        <v>3</v>
-      </c>
-      <c r="AB34" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="81">
-        <v>2</v>
+      <c r="AA34" s="79">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="79">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="79">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6413,20 +6426,20 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L35" s="52">
+      <c r="L35" s="50">
         <v>108</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="N35" s="53" t="str">
+      <c r="N35" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10801|10803</v>
       </c>
-      <c r="O35" s="53" t="s">
+      <c r="O35" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P35" s="53">
+      <c r="P35" s="51">
         <f t="shared" si="3"/>
         <v>10804</v>
       </c>
@@ -6448,26 +6461,26 @@
       <c r="V35" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W35" s="70" t="s">
+      <c r="W35" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="X35" s="70" t="s">
+      <c r="X35" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="Z35" s="52">
+      <c r="Z35" s="50">
         <v>1030</v>
       </c>
-      <c r="AA35" s="78">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="78">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="78">
-        <v>2</v>
+      <c r="AA35" s="76">
+        <v>3</v>
+      </c>
+      <c r="AB35" s="76">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="79">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6497,7 +6510,7 @@
       </c>
       <c r="I36" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500109;50|500000;20</v>
+        <v>500109;50|500000;40</v>
       </c>
       <c r="J36" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6507,18 +6520,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L36" s="52">
+      <c r="L36" s="50">
         <v>109</v>
       </c>
-      <c r="M36" s="53" t="s">
+      <c r="M36" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="N36" s="53" t="str">
+      <c r="N36" s="51" t="str">
         <f t="shared" si="6"/>
         <v>10901|10903|10904</v>
       </c>
-      <c r="O36" s="58"/>
-      <c r="P36" s="53" t="str">
+      <c r="O36" s="56"/>
+      <c r="P36" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6540,26 +6553,26 @@
       <c r="V36" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W36" s="70" t="s">
+      <c r="W36" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="X36" s="70" t="s">
+      <c r="X36" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="Z36" s="52">
+      <c r="Z36" s="50">
         <v>1019</v>
       </c>
-      <c r="AA36" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="78">
-        <v>2</v>
+      <c r="AA36" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="76">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="76">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6589,7 +6602,7 @@
       </c>
       <c r="I37" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500110;20|500000;5</v>
+        <v>500110;25|500000;8</v>
       </c>
       <c r="J37" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6599,20 +6612,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L37" s="52">
+      <c r="L37" s="50">
         <v>110</v>
       </c>
-      <c r="M37" s="53" t="s">
+      <c r="M37" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="N37" s="53" t="str">
+      <c r="N37" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11001|11003|11004</v>
       </c>
-      <c r="O37" s="53" t="s">
+      <c r="O37" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P37" s="53" t="str">
+      <c r="P37" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6634,26 +6647,26 @@
       <c r="V37" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W37" s="70" t="s">
+      <c r="W37" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="X37" s="70" t="s">
+      <c r="X37" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="Z37" s="52">
+      <c r="Z37" s="50">
         <v>1018</v>
       </c>
-      <c r="AA37" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC37" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="78">
-        <v>2</v>
+      <c r="AA37" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC37" s="76">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6683,7 +6696,7 @@
       </c>
       <c r="I38" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500111;50|500000;20</v>
+        <v>500111;50|500000;40</v>
       </c>
       <c r="J38" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6693,18 +6706,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L38" s="52">
+      <c r="L38" s="50">
         <v>111</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M38" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="N38" s="53" t="str">
+      <c r="N38" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11101|11103|11104</v>
       </c>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53" t="str">
+      <c r="O38" s="51"/>
+      <c r="P38" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6726,26 +6739,26 @@
       <c r="V38" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="W38" s="70" t="s">
+      <c r="W38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="X38" s="70" t="s">
+      <c r="X38" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="Z38" s="52">
+      <c r="Z38" s="50">
         <v>1020</v>
       </c>
-      <c r="AA38" s="78">
-        <v>2</v>
-      </c>
-      <c r="AB38" s="78">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="78">
-        <v>2</v>
+      <c r="AA38" s="76">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="76">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="76">
+        <v>6</v>
+      </c>
+      <c r="AD38" s="76">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -6775,7 +6788,7 @@
       </c>
       <c r="I39" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500112;20|500000;5</v>
+        <v>500112;25|500000;8</v>
       </c>
       <c r="J39" s="28" t="str">
         <f t="shared" si="5"/>
@@ -6785,20 +6798,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L39" s="52">
+      <c r="L39" s="50">
         <v>112</v>
       </c>
-      <c r="M39" s="53" t="s">
+      <c r="M39" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="N39" s="53" t="str">
+      <c r="N39" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11201|11203|11204</v>
       </c>
-      <c r="O39" s="53" t="s">
+      <c r="O39" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P39" s="53" t="str">
+      <c r="P39" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6814,32 +6827,32 @@
       <c r="T39" s="28">
         <v>10</v>
       </c>
-      <c r="U39" s="72" t="s">
+      <c r="U39" s="70" t="s">
         <v>200</v>
       </c>
       <c r="V39" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W39" s="70" t="s">
+      <c r="W39" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="X39" s="70" t="s">
+      <c r="X39" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="Z39" s="52">
+      <c r="Z39" s="50">
         <v>1021</v>
       </c>
-      <c r="AA39" s="78">
-        <v>3</v>
-      </c>
-      <c r="AB39" s="78">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="78">
-        <v>2</v>
+      <c r="AA39" s="76">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="76">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="76">
+        <v>5</v>
+      </c>
+      <c r="AD39" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -6879,18 +6892,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L40" s="56">
+      <c r="L40" s="54">
         <v>113</v>
       </c>
-      <c r="M40" s="57" t="s">
+      <c r="M40" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="N40" s="57" t="str">
+      <c r="N40" s="55" t="str">
         <f t="shared" si="6"/>
         <v>11301|11303</v>
       </c>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57">
+      <c r="O40" s="55"/>
+      <c r="P40" s="55">
         <f t="shared" si="3"/>
         <v>11304</v>
       </c>
@@ -6912,26 +6925,26 @@
       <c r="V40" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="W40" s="74" t="s">
+      <c r="W40" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="X40" s="74" t="s">
+      <c r="X40" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="Z40" s="56">
+      <c r="Z40" s="54">
         <v>1041</v>
       </c>
-      <c r="AA40" s="81">
-        <v>3</v>
-      </c>
-      <c r="AB40" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="81">
-        <v>2</v>
+      <c r="AA40" s="79">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="79">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="76">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -6961,7 +6974,7 @@
       </c>
       <c r="I41" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500114;50|500000;20</v>
+        <v>500114;50|500000;40</v>
       </c>
       <c r="J41" s="30" t="str">
         <f t="shared" si="5"/>
@@ -6971,18 +6984,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L41" s="56">
+      <c r="L41" s="54">
         <v>114</v>
       </c>
-      <c r="M41" s="57" t="s">
+      <c r="M41" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="N41" s="57" t="str">
+      <c r="N41" s="55" t="str">
         <f t="shared" si="6"/>
         <v>11401|11403|11404</v>
       </c>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57" t="str">
+      <c r="O41" s="55"/>
+      <c r="P41" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7004,26 +7017,26 @@
       <c r="V41" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="W41" s="74" t="s">
+      <c r="W41" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="X41" s="74" t="s">
+      <c r="X41" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="Z41" s="56">
+      <c r="Z41" s="54">
         <v>1031</v>
       </c>
-      <c r="AA41" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="81">
-        <v>2</v>
-      </c>
-      <c r="AC41" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="81">
-        <v>2</v>
+      <c r="AA41" s="79">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="79">
+        <v>2</v>
+      </c>
+      <c r="AC41" s="76">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7053,7 +7066,7 @@
       </c>
       <c r="I42" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500115;20|500000;5</v>
+        <v>500115;25|500000;8</v>
       </c>
       <c r="J42" s="28" t="str">
         <f t="shared" si="5"/>
@@ -7063,20 +7076,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L42" s="52">
+      <c r="L42" s="50">
         <v>115</v>
       </c>
-      <c r="M42" s="53" t="s">
+      <c r="M42" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="N42" s="53" t="str">
+      <c r="N42" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11501|11503|11504</v>
       </c>
-      <c r="O42" s="53" t="s">
+      <c r="O42" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P42" s="53" t="str">
+      <c r="P42" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7098,26 +7111,26 @@
       <c r="V42" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W42" s="70" t="s">
+      <c r="W42" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="X42" s="70" t="s">
+      <c r="X42" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="Z42" s="52">
+      <c r="Z42" s="50">
         <v>1026</v>
       </c>
-      <c r="AA42" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC42" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="78">
-        <v>2</v>
+      <c r="AA42" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="76">
+        <v>7</v>
+      </c>
+      <c r="AD42" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7147,7 +7160,7 @@
       </c>
       <c r="I43" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500116;50|500000;20</v>
+        <v>500116;50|500000;40</v>
       </c>
       <c r="J43" s="28" t="str">
         <f t="shared" si="5"/>
@@ -7157,18 +7170,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L43" s="52">
+      <c r="L43" s="50">
         <v>116</v>
       </c>
-      <c r="M43" s="53" t="s">
+      <c r="M43" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="N43" s="53" t="str">
+      <c r="N43" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11601|11603|11604</v>
       </c>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53" t="str">
+      <c r="O43" s="51"/>
+      <c r="P43" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7190,26 +7203,26 @@
       <c r="V43" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W43" s="70" t="s">
+      <c r="W43" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="X43" s="70" t="s">
+      <c r="X43" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="Z43" s="52">
+      <c r="Z43" s="50">
         <v>1027</v>
       </c>
-      <c r="AA43" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC43" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="78">
-        <v>2</v>
+      <c r="AA43" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC43" s="76">
+        <v>7</v>
+      </c>
+      <c r="AD43" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -7239,7 +7252,7 @@
       </c>
       <c r="I44" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500117;50|500000;20</v>
+        <v>500117;50|500000;40</v>
       </c>
       <c r="J44" s="30" t="str">
         <f t="shared" si="5"/>
@@ -7249,18 +7262,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L44" s="56">
+      <c r="L44" s="54">
         <v>117</v>
       </c>
-      <c r="M44" s="57" t="s">
+      <c r="M44" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="N44" s="57" t="str">
+      <c r="N44" s="55" t="str">
         <f t="shared" si="6"/>
         <v>11701|11703|11704</v>
       </c>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57" t="str">
+      <c r="O44" s="55"/>
+      <c r="P44" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7282,26 +7295,26 @@
       <c r="V44" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="W44" s="74" t="s">
+      <c r="W44" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="X44" s="74" t="s">
+      <c r="X44" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="Z44" s="56">
+      <c r="Z44" s="54">
         <v>1038</v>
       </c>
-      <c r="AA44" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="81">
-        <v>3</v>
-      </c>
-      <c r="AC44" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="81">
-        <v>2</v>
+      <c r="AA44" s="79">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="79">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="79">
+        <v>7</v>
+      </c>
+      <c r="AD44" s="76">
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7341,20 +7354,20 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L45" s="52">
+      <c r="L45" s="50">
         <v>118</v>
       </c>
-      <c r="M45" s="53" t="s">
+      <c r="M45" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="N45" s="53" t="str">
+      <c r="N45" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11801|11803</v>
       </c>
-      <c r="O45" s="53" t="s">
+      <c r="O45" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P45" s="51">
         <f t="shared" si="3"/>
         <v>11804</v>
       </c>
@@ -7376,26 +7389,26 @@
       <c r="V45" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="W45" s="70" t="s">
+      <c r="W45" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="X45" s="70" t="s">
+      <c r="X45" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="Z45" s="52">
+      <c r="Z45" s="50">
         <v>1029</v>
       </c>
-      <c r="AA45" s="78">
-        <v>3</v>
-      </c>
-      <c r="AB45" s="78">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="78">
-        <v>2</v>
+      <c r="AA45" s="76">
+        <v>3</v>
+      </c>
+      <c r="AB45" s="76">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="76">
+        <v>8</v>
+      </c>
+      <c r="AD45" s="76">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7425,7 +7438,7 @@
       </c>
       <c r="I46" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500119;20|500000;5</v>
+        <v>500119;25|500000;8</v>
       </c>
       <c r="J46" s="28" t="str">
         <f t="shared" si="5"/>
@@ -7435,18 +7448,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L46" s="52">
+      <c r="L46" s="50">
         <v>119</v>
       </c>
-      <c r="M46" s="53" t="s">
+      <c r="M46" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="N46" s="53" t="str">
+      <c r="N46" s="51" t="str">
         <f t="shared" si="6"/>
         <v>11901|11903|11904</v>
       </c>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53" t="str">
+      <c r="O46" s="51"/>
+      <c r="P46" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7468,26 +7481,26 @@
       <c r="V46" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="W46" s="70" t="s">
+      <c r="W46" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="X46" s="70" t="s">
+      <c r="X46" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="Z46" s="52">
+      <c r="Z46" s="50">
         <v>1023</v>
       </c>
-      <c r="AA46" s="78">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="78">
-        <v>2</v>
-      </c>
-      <c r="AC46" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="78">
-        <v>2</v>
+      <c r="AA46" s="76">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="76">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="76">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="76">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -7517,7 +7530,7 @@
       </c>
       <c r="I47" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500120;20|500000;5</v>
+        <v>500120;25|500000;8</v>
       </c>
       <c r="J47" s="30" t="str">
         <f t="shared" si="5"/>
@@ -7527,18 +7540,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L47" s="56">
+      <c r="L47" s="54">
         <v>120</v>
       </c>
-      <c r="M47" s="57" t="s">
+      <c r="M47" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="N47" s="57" t="str">
+      <c r="N47" s="55" t="str">
         <f t="shared" si="6"/>
         <v>12001|12003|12004</v>
       </c>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57" t="str">
+      <c r="O47" s="55"/>
+      <c r="P47" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7560,26 +7573,26 @@
       <c r="V47" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="W47" s="74" t="s">
+      <c r="W47" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="X47" s="74" t="s">
+      <c r="X47" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="Z47" s="56">
+      <c r="Z47" s="54">
         <v>1039</v>
       </c>
-      <c r="AA47" s="81">
-        <v>3</v>
-      </c>
-      <c r="AB47" s="81">
-        <v>2</v>
-      </c>
-      <c r="AC47" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="81">
-        <v>2</v>
+      <c r="AA47" s="79">
+        <v>3</v>
+      </c>
+      <c r="AB47" s="79">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="79">
+        <v>9</v>
+      </c>
+      <c r="AD47" s="79">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:30" s="28" customFormat="1" x14ac:dyDescent="0.15">
@@ -7609,7 +7622,7 @@
       </c>
       <c r="I48" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>500121;20|500000;5</v>
+        <v>500121;25|500000;8</v>
       </c>
       <c r="J48" s="28" t="str">
         <f t="shared" si="5"/>
@@ -7619,20 +7632,20 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L48" s="52">
+      <c r="L48" s="50">
         <v>121</v>
       </c>
-      <c r="M48" s="53" t="s">
+      <c r="M48" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="N48" s="53" t="str">
+      <c r="N48" s="51" t="str">
         <f t="shared" si="6"/>
         <v>12101|12103|12104</v>
       </c>
-      <c r="O48" s="53" t="s">
+      <c r="O48" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="P48" s="53" t="str">
+      <c r="P48" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7654,26 +7667,26 @@
       <c r="V48" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="W48" s="70" t="s">
+      <c r="W48" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="X48" s="70" t="s">
+      <c r="X48" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="Z48" s="52">
+      <c r="Z48" s="50">
         <v>1028</v>
       </c>
-      <c r="AA48" s="78">
-        <v>2</v>
-      </c>
-      <c r="AB48" s="78">
-        <v>3</v>
-      </c>
-      <c r="AC48" s="78">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="78">
-        <v>2</v>
+      <c r="AA48" s="76">
+        <v>2</v>
+      </c>
+      <c r="AB48" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="79">
+        <v>9</v>
+      </c>
+      <c r="AD48" s="79">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.15">
@@ -7703,7 +7716,7 @@
       </c>
       <c r="I49" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>500122;20|500000;5</v>
+        <v>500122;25|500000;8</v>
       </c>
       <c r="J49" s="31" t="str">
         <f t="shared" si="5"/>
@@ -7713,18 +7726,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L49" s="59">
+      <c r="L49" s="57">
         <v>105</v>
       </c>
-      <c r="M49" s="60" t="s">
+      <c r="M49" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="N49" s="60" t="str">
+      <c r="N49" s="58" t="str">
         <f t="shared" si="6"/>
         <v>12201|12203|12204</v>
       </c>
-      <c r="O49" s="60"/>
-      <c r="P49" s="60" t="str">
+      <c r="O49" s="58"/>
+      <c r="P49" s="58" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7740,23 +7753,23 @@
       <c r="V49" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="W49" s="75" t="s">
+      <c r="W49" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="X49" s="75" t="s">
+      <c r="X49" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="Z49" s="59"/>
-      <c r="AA49" s="80">
-        <v>3</v>
-      </c>
-      <c r="AB49" s="80">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="80">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="80">
+      <c r="Z49" s="57"/>
+      <c r="AA49" s="78">
+        <v>3</v>
+      </c>
+      <c r="AB49" s="78">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="78">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="78">
         <v>2</v>
       </c>
     </row>
@@ -7787,7 +7800,7 @@
       </c>
       <c r="I50" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500123;20|500000;5</v>
+        <v>500123;25|500000;8</v>
       </c>
       <c r="J50" s="30" t="str">
         <f t="shared" si="5"/>
@@ -7797,18 +7810,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L50" s="56">
+      <c r="L50" s="54">
         <v>123</v>
       </c>
-      <c r="M50" s="57" t="s">
+      <c r="M50" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="N50" s="57" t="str">
+      <c r="N50" s="55" t="str">
         <f t="shared" si="6"/>
         <v>12301|12303|12304</v>
       </c>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57" t="str">
+      <c r="O50" s="55"/>
+      <c r="P50" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7830,26 +7843,26 @@
       <c r="V50" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="W50" s="74" t="s">
+      <c r="W50" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="X50" s="74" t="s">
+      <c r="X50" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="Z50" s="56">
+      <c r="Z50" s="54">
         <v>1040</v>
       </c>
-      <c r="AA50" s="81">
-        <v>3</v>
-      </c>
-      <c r="AB50" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="81">
-        <v>2</v>
+      <c r="AA50" s="79">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="79">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="79">
+        <v>10</v>
+      </c>
+      <c r="AD50" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -7879,7 +7892,7 @@
       </c>
       <c r="I51" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500124;50|500000;20</v>
+        <v>500124;50|500000;40</v>
       </c>
       <c r="J51" s="30" t="str">
         <f t="shared" si="5"/>
@@ -7889,18 +7902,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L51" s="56">
+      <c r="L51" s="54">
         <v>124</v>
       </c>
-      <c r="M51" s="57" t="s">
+      <c r="M51" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="N51" s="57" t="str">
+      <c r="N51" s="55" t="str">
         <f t="shared" si="6"/>
         <v>12401|12403|12404</v>
       </c>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57" t="str">
+      <c r="O51" s="55"/>
+      <c r="P51" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -7922,26 +7935,26 @@
       <c r="V51" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="W51" s="74" t="s">
+      <c r="W51" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="X51" s="74" t="s">
+      <c r="X51" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="Z51" s="56">
+      <c r="Z51" s="54">
         <v>1037</v>
       </c>
-      <c r="AA51" s="81">
-        <v>3</v>
-      </c>
-      <c r="AB51" s="81">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="81">
-        <v>2</v>
+      <c r="AA51" s="79">
+        <v>3</v>
+      </c>
+      <c r="AB51" s="79">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="79">
+        <v>10</v>
+      </c>
+      <c r="AD51" s="79">
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -7981,18 +7994,18 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L52" s="56">
+      <c r="L52" s="54">
         <v>125</v>
       </c>
-      <c r="M52" s="57" t="s">
+      <c r="M52" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="N52" s="57" t="str">
+      <c r="N52" s="55" t="str">
         <f t="shared" si="6"/>
         <v>12501|12503</v>
       </c>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57">
+      <c r="O52" s="55"/>
+      <c r="P52" s="55">
         <f t="shared" si="3"/>
         <v>12504</v>
       </c>
@@ -8014,26 +8027,26 @@
       <c r="V52" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="74" t="s">
+      <c r="W52" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="X52" s="74" t="s">
+      <c r="X52" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="Z52" s="56">
+      <c r="Z52" s="54">
         <v>1032</v>
       </c>
-      <c r="AA52" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="81">
-        <v>2</v>
-      </c>
-      <c r="AC52" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="81">
-        <v>2</v>
+      <c r="AA52" s="79">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="79">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="79">
+        <v>11</v>
+      </c>
+      <c r="AD52" s="79">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -8063,7 +8076,7 @@
       </c>
       <c r="I53" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500126;50|500000;20</v>
+        <v>500126;50|500000;40</v>
       </c>
       <c r="J53" s="30" t="str">
         <f t="shared" si="5"/>
@@ -8073,18 +8086,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L53" s="56">
+      <c r="L53" s="54">
         <v>126</v>
       </c>
-      <c r="M53" s="57" t="s">
+      <c r="M53" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="N53" s="57" t="str">
+      <c r="N53" s="55" t="str">
         <f t="shared" si="6"/>
         <v>12601|12603|12604</v>
       </c>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57" t="str">
+      <c r="O53" s="55"/>
+      <c r="P53" s="55" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -8106,26 +8119,26 @@
       <c r="V53" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="W53" s="74" t="s">
+      <c r="W53" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="X53" s="74" t="s">
+      <c r="X53" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="Z53" s="56">
+      <c r="Z53" s="54">
         <v>1035</v>
       </c>
-      <c r="AA53" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="81">
-        <v>3</v>
-      </c>
-      <c r="AC53" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="81">
-        <v>2</v>
+      <c r="AA53" s="79">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="79">
+        <v>3</v>
+      </c>
+      <c r="AC53" s="79">
+        <v>12</v>
+      </c>
+      <c r="AD53" s="79">
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.15">
@@ -8155,7 +8168,7 @@
       </c>
       <c r="I54" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>500127;20|500000;5</v>
+        <v>500127;25|500000;8</v>
       </c>
       <c r="J54" s="31" t="str">
         <f t="shared" ref="J54" si="7">500000+A54&amp;"|"&amp;POWER(H54,2)*10+10</f>
@@ -8165,18 +8178,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L54" s="59">
+      <c r="L54" s="57">
         <v>127</v>
       </c>
-      <c r="M54" s="60" t="s">
+      <c r="M54" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="N54" s="60" t="str">
+      <c r="N54" s="58" t="str">
         <f t="shared" ref="N54" si="8">IF(H54=1,A54*100+1&amp;"|"&amp;A54*100+3,A54*100+1&amp;"|"&amp;A54*100+3&amp;"|"&amp;A54*100+4)</f>
         <v>12701|12703|12704</v>
       </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60" t="str">
+      <c r="O54" s="58"/>
+      <c r="P54" s="58" t="str">
         <f t="shared" ref="P54" si="9">IF(A54&lt;900,IF(H54=1,A54*100+4,""),"")</f>
         <v/>
       </c>
@@ -8198,24 +8211,24 @@
       <c r="V54" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="W54" s="75" t="s">
+      <c r="W54" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="X54" s="75" t="s">
+      <c r="X54" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="82">
-        <v>3</v>
-      </c>
-      <c r="AB54" s="82">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="82">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="82">
-        <v>2</v>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="80">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="80">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="80">
+        <v>11</v>
+      </c>
+      <c r="AD54" s="80">
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:30" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -8245,7 +8258,7 @@
       </c>
       <c r="I55" s="30" t="str">
         <f t="shared" si="4"/>
-        <v>500128;20|500000;5</v>
+        <v>500128;25|500000;8</v>
       </c>
       <c r="J55" s="30" t="str">
         <f t="shared" ref="J55" si="10">500000+A55&amp;"|"&amp;POWER(H55,2)*10+10</f>
@@ -8255,17 +8268,17 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L55" s="56">
+      <c r="L55" s="54">
         <v>128</v>
       </c>
-      <c r="M55" s="57" t="s">
+      <c r="M55" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="N55" s="57" t="s">
+      <c r="N55" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57" t="str">
+      <c r="O55" s="55"/>
+      <c r="P55" s="55" t="str">
         <f t="shared" ref="P55" si="11">IF(A55&lt;900,IF(H55=1,A55*100+4,""),"")</f>
         <v/>
       </c>
@@ -8287,95 +8300,95 @@
       <c r="V55" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="W55" s="74" t="s">
+      <c r="W55" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="X55" s="74" t="s">
+      <c r="X55" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="Z55" s="56">
+      <c r="Z55" s="54">
         <v>1034</v>
       </c>
-      <c r="AA55" s="81">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="81">
-        <v>3</v>
-      </c>
-      <c r="AC55" s="81">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="81">
-        <v>2</v>
+      <c r="AA55" s="79">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="79">
+        <v>3</v>
+      </c>
+      <c r="AC55" s="79">
+        <v>12</v>
+      </c>
+      <c r="AD55" s="79">
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="AA56" s="83"/>
-      <c r="AB56" s="83"/>
-      <c r="AC56" s="83"/>
-      <c r="AD56" s="83"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="AA56" s="81"/>
+      <c r="AB56" s="81"/>
+      <c r="AC56" s="81"/>
+      <c r="AD56" s="81"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Y55"/>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10082,7 +10095,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -83472,7 +83485,7 @@
       <c r="L1840" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="71" priority="1"/>
   </conditionalFormatting>
@@ -83745,7 +83758,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -83878,7 +83891,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -83983,7 +83996,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -84077,7 +84090,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -84293,7 +84306,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/010_异质物养成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F26CFE-D6F8-4FCD-9553-7EA37E9C2670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58588-C45B-41B8-A61A-0C3E259F310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit|id(100,999)" sheetId="5" r:id="rId1"/>
@@ -2346,20 +2346,16 @@
     <t>cost_skill04</t>
   </si>
   <si>
-    <t>1:{ID:Item$Null}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>1:{ID:Item|Null}</t>
   </si>
   <si>
-    <t>ID:Skill$Null</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>ID:Skill|Null</t>
   </si>
   <si>
-    <t>ID:SCPRecord$Null</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>ID:SCPRecord|Null</t>
   </si>
   <si>
-    <t>ID:equip_suit$Null</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>ID:equip_suit|Null</t>
   </si>
 </sst>
 </file>
@@ -3693,8 +3689,8 @@
   <dimension ref="A1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
+      <pane xSplit="6" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
